--- a/myworkbook.xlsx
+++ b/myworkbook.xlsx
@@ -12,9 +12,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>This is cell A1</t>
+    <t>King Farm Presbyterian Community Inc.</t>
+  </si>
+  <si>
+    <t>Facility</t>
+  </si>
+  <si>
+    <t>Memory Support Assisted Living</t>
   </si>
 </sst>
 </file>
@@ -48,8 +54,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -60,18 +69,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <headerFooter/>
 </worksheet>
 </file>
--- a/myworkbook.xlsx
+++ b/myworkbook.xlsx
@@ -12,15 +12,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>King Farm Presbyterian Community Inc.</t>
+    <t>Westminster Presbyterian Retir</t>
   </si>
   <si>
-    <t>Facility</t>
+    <t>For Facility Type CO</t>
   </si>
   <si>
-    <t>Memory Support Assisted Living</t>
+    <t>For Unit Assignment Code ALL</t>
+  </si>
+  <si>
+    <t>Roster for CO 10/01/2019 12/31/2019 Sequence - By Payor Type + Census Status - All</t>
   </si>
 </sst>
 </file>
@@ -28,9 +31,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -56,7 +64,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="1" applyFont="1" xfId="0" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -69,17 +77,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="14" ySplit="2" topLeftCell="O3" state="frozen" activePane="bottomRight"/>
+      <selection pane="topRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="0" t="s">
         <v>0</v>
       </c>
     </row>
@@ -91,9 +104,54 @@
         <v>2</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A3:N3"/>
   </mergeCells>
   <headerFooter/>
 </worksheet>
